--- a/src/services/templates/perRobot_templateAssets.xlsx
+++ b/src/services/templates/perRobot_templateAssets.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973D8E29-37A1-B749-AB6B-84221E47D103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD56BC2-CBBD-2442-A89A-A2E5BD2FB70A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47940" yWindow="14000" windowWidth="40080" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46940" yWindow="9200" windowWidth="40080" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>RobotId</t>
   </si>
@@ -70,6 +71,24 @@
   </si>
   <si>
     <t>AssetName</t>
+  </si>
+  <si>
+    <t>Assets.xlsxと同様</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ドウヨウ </t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Robot名</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Assets.xlsx のNameにあわせる</t>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -147,7 +166,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,6 +185,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -404,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -421,6 +446,7 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -704,7 +730,8 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="14"/>
@@ -777,4 +804,100 @@
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597B59A2-7EF3-6843-8E66-E1E6996FE64E}">
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>